--- a/docs/tp/Clients/Clients - Note Contratto.xlsx
+++ b/docs/tp/Clients/Clients - Note Contratto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\Clients\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\Clients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4B6DFE-077E-44B4-B7EF-9F5AC4F412B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4EADF9-1766-4EA3-99C6-D33AE0564A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="102">
   <si>
     <t>Design</t>
   </si>
@@ -83,106 +83,262 @@
     <t>Anagrafe</t>
   </si>
   <si>
-    <t>Note di contratto(1)</t>
-  </si>
-  <si>
-    <t>MW come delegato accedere alla scheda di un cliente con polizze AU (sia per RV/VITA/ULTRA) in vigore. Da portafoglio &gt; Menu contestuale &gt; Aggiungi nota</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inserire Titolo e Testo a piacere e cliccare su Salva                                                                   - Verificare che l'operazione vada a buon fine e si venga riportati al Portafoglio                                                                            - verificare che sia stata creata la nota e sia presente la relativa icona sulla barra inferiore della polizza (accanto ai Ruoli)                                                                  </t>
   </si>
   <si>
     <t>Pusateri Kevin (Leased Employed)</t>
   </si>
   <si>
-    <t>Note di contratto(2)</t>
-  </si>
-  <si>
     <t>Sulla scheda della polizza</t>
   </si>
   <si>
     <t xml:space="preserve">Verificare che passando sull'icona della nota sia presente una tooltip che riporta la presenza di 1 nota    </t>
   </si>
   <si>
-    <t>Note di contratto(3)</t>
-  </si>
-  <si>
     <t>Cliccando sulla nota</t>
   </si>
   <si>
     <t>Verificare che:                                                                                                             - si apra la modale                                                                                                                    - sia presente il pulsante Aggiungi nota                        - sia presente il menu contestuale (tre puntini) con la possibilità di modificare o eliminare la nota</t>
   </si>
   <si>
-    <t>Note di contratto(4)</t>
-  </si>
-  <si>
     <t>Scegliere Modifica nota</t>
   </si>
   <si>
     <t>Modificare il Titolo ed il Testo.                                                                                                   - Verificare che l'operazione vada a buon fine                                                                                - Cliccando sull'icona Nota si apra la modale con il testo che ho appena modificato.</t>
   </si>
   <si>
-    <t>Note di contratto(5)</t>
-  </si>
-  <si>
     <t>Dalla modale della nota &gt; Aggiungi nota</t>
   </si>
   <si>
     <t xml:space="preserve">Inserire Titolo e Testo a piacere e cliccare su Salva                                                                   - Verificare che l'operazione vada a buon fine                                                                            - verificare che sia stata creata la nota e sia presente la relativa icona sulla barra inferiore della polizza (accanto ai Ruoli)                                                                  </t>
   </si>
   <si>
-    <t>Note di contratto(6)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verificare che passando sull'icona della nota sia presente una tooltip che riporta la presenza di 2 note    </t>
   </si>
   <si>
-    <t>Note di contratto(7)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inserire il Titolo e il Testo, fleggarla come Importante e cliccare su Salva                                                                   - Verificare che l'operazione vada a buon fine                                                                            - verificare che sia stata creata la nota e sia presente la relativa icona sulla barra inferiore della polizza (accanto ai Ruoli)                                                                  </t>
   </si>
   <si>
-    <t>Note di contratto(8)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verificare che passando sull'icona della nota sia presente una tooltip che riporta la presenza di 3 note di cui 1 importante    </t>
   </si>
   <si>
-    <t>Note di contratto(9)</t>
-  </si>
-  <si>
     <t>Prendersi nota del numero di polizza e della Lob.                                                                  Sales &gt; Hamburger menu &gt; Note di contratto</t>
   </si>
   <si>
     <t xml:space="preserve">Inserire il numero di contratto, scegliere la lob &gt; Cerca                                                             - Verificare la presenza delle note                                                                                                                                             </t>
   </si>
   <si>
-    <t>Note di contratto(10)</t>
-  </si>
-  <si>
     <t>Per una delle note, dal menu contestuale (Rotellina) &gt; Modifica</t>
   </si>
   <si>
     <t>Modificare la nota &gt; scegliere Annulla                                                                             - Verificare che non sia cambiato nulla.                                                                                         .                                                                                                                                         Dal menu contestuale (Rotellina) &gt; Modifica                                                                                                               Modificare la nota &gt; scegliere Conferma                                                                                          - Verificare che l'operazione vada a buon fine ed il testo sia cambiato</t>
   </si>
   <si>
-    <t>Note di contratto(11)</t>
-  </si>
-  <si>
     <t>In Clients sullo stesso cliente per la stessa polizza</t>
   </si>
   <si>
     <t>Verificare che le modifiche siano andate a buon fine.</t>
   </si>
   <si>
-    <t>Note di contratto(12)</t>
-  </si>
-  <si>
     <t xml:space="preserve">sempre da Clients - eliminare le note presenti </t>
   </si>
   <si>
     <t xml:space="preserve">Verificare che l'operazione sia andata a buon fine </t>
+  </si>
+  <si>
+    <t>MW come delegato accedere alla scheda di un cliente con polizze AU  RV/VITA/ULTRA) in vigore. Da portafoglio &gt; Menu contestuale &gt; Aggiungi nota</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Auto(1)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Auto(2)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Auto(3)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Auto(4)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Auto(5)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Auto(6)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Auto(7)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Auto(8)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Auto(9)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Auto(10)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Auto(11)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Auto(12)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Vita(1)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Vita(2)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Vita(3)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Vita(4)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Vita(5)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Vita(6)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Vita(7)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Vita(8)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Vita(9)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Vita(10)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Vita(11)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Vita(12)</t>
+  </si>
+  <si>
+    <t>MW come delegato accedere alla scheda di un cliente con polizze VITA in vigore. Da portafoglio &gt; Menu contestuale &gt; Aggiungi nota</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Rami Vari(1)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Rami Vari(2)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Rami Vari(3)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Rami Vari(4)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Rami Vari(5)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Rami Vari(6)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Rami Vari(7)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Rami Vari(8)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Rami Vari(9)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Rami Vari(10)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Rami Vari(11)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Rami Vari(12)</t>
+  </si>
+  <si>
+    <t>MW come delegato accedere alla scheda di un cliente con RAMI VARI in vigore. Da portafoglio &gt; Menu contestuale &gt; Aggiungi nota</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Ultra(1)</t>
+  </si>
+  <si>
+    <t>MW come delegato accedere alla scheda di un cliente con ULTRA in vigore. Da portafoglio &gt; Menu contestuale &gt; Aggiungi nota</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Ultra(2)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Ultra(3)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Ultra(4)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Ultra(5)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Ultra(6)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Ultra(7)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Ultra(8)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Ultra(10)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Ultra(11)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Ultra(12)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Allianz1 Business(1)</t>
+  </si>
+  <si>
+    <t>MW come delegato accedere alla scheda di un cliente con Allianz1 Business in vigore. Da portafoglio &gt; Menu contestuale &gt; Aggiungi nota</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Allianz1 Business(2)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Allianz1 Business(3)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Allianz1 Business(4)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Allianz1 Business(5)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Allianz1 Business(6)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Allianz1 Business(7)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Allianz1 Business(8)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Allianz1 Business(9)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Allianz1 Business(10)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Allianz1 Business(11)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Allianz1 Business(12)</t>
+  </si>
+  <si>
+    <t>Note di contratto Polizza Ultra(9)</t>
   </si>
 </sst>
 </file>
@@ -611,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,16 +821,16 @@
     </row>
     <row r="2" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>0</v>
@@ -697,16 +853,16 @@
     </row>
     <row r="3" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -729,16 +885,16 @@
     </row>
     <row r="4" spans="1:10" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -761,16 +917,16 @@
     </row>
     <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>0</v>
@@ -793,16 +949,16 @@
     </row>
     <row r="6" spans="1:10" ht="84" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>0</v>
@@ -825,16 +981,16 @@
     </row>
     <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>0</v>
@@ -857,16 +1013,16 @@
     </row>
     <row r="8" spans="1:10" ht="84" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
@@ -889,16 +1045,16 @@
     </row>
     <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>0</v>
@@ -921,16 +1077,16 @@
     </row>
     <row r="10" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>0</v>
@@ -953,16 +1109,16 @@
     </row>
     <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
@@ -985,16 +1141,16 @@
     </row>
     <row r="12" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>0</v>
@@ -1017,33 +1173,1569 @@
     </row>
     <row r="13" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>14</v>
       </c>
     </row>
